--- a/spliced/falling/2023-03-25_17-55-44/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-44/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1412625908851623</v>
+        <v>0.2278527319431305</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3335324227809906</v>
+        <v>-0.8228355050086975</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0261144898831844</v>
+        <v>0.3602577745914459</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.152563601732254</v>
+        <v>0.0354301854968071</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.527634859085083</v>
+        <v>-0.427452951669693</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0335975885391235</v>
+        <v>0.4167627990245819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.2588541507720947</v>
+        <v>0.1412625908851623</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.7525860071182251</v>
+        <v>-0.3335324227809906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0536034256219863</v>
+        <v>-0.0261144898831844</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.447000652551651</v>
+        <v>0.152563601732254</v>
       </c>
       <c r="B5" t="n">
-        <v>0.88361656665802</v>
+        <v>-0.527634859085083</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7803803682327271</v>
+        <v>-0.0335975885391235</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.5057692527771</v>
+        <v>0.2588541507720947</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.185495853424072</v>
+        <v>-0.7525860071182251</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.749212622642517</v>
+        <v>0.0536034256219863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.3768630027771</v>
+        <v>0.447000652551651</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.853449821472168</v>
+        <v>0.88361656665802</v>
       </c>
       <c r="C7" t="n">
-        <v>1.152244567871094</v>
+        <v>-0.7803803682327271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.452763080596924</v>
+        <v>2.5057692527771</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.31610918045044</v>
+        <v>-4.185495853424072</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.093448758125305</v>
+        <v>-1.749212622642517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9560040831565856</v>
+        <v>-3.3768630027771</v>
       </c>
       <c r="B9" t="n">
-        <v>1.219134330749511</v>
+        <v>-6.853449821472168</v>
       </c>
       <c r="C9" t="n">
-        <v>3.047301292419434</v>
+        <v>1.152244567871094</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0424551330506801</v>
+        <v>-3.452763080596924</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1565342247486114</v>
+        <v>-1.31610918045044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2597704529762268</v>
+        <v>-1.093448758125305</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1169806942343711</v>
+        <v>0.9560040831565856</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6998988389968872</v>
+        <v>1.219134330749511</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.625512361526489</v>
+        <v>3.047301292419434</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.398270487785339</v>
+        <v>-0.0424551330506801</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.411556839942932</v>
+        <v>0.1565342247486114</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2585487067699432</v>
+        <v>0.2597704529762268</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.174527645111084</v>
+        <v>0.1169806942343711</v>
       </c>
       <c r="B13" t="n">
-        <v>1.24815046787262</v>
+        <v>-0.6998988389968872</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5600107312202454</v>
+        <v>-1.625512361526489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1776090711355209</v>
+        <v>1.398270487785339</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5535966157913208</v>
+        <v>-1.411556839942932</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1540907621383667</v>
+        <v>-0.2585487067699432</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0699440687894821</v>
+        <v>2.174527645111084</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0386372283101081</v>
+        <v>1.24815046787262</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0519235469400882</v>
+        <v>0.5600107312202454</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0510072484612464</v>
+        <v>-0.1776090711355209</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0113010071218013</v>
+        <v>0.5535966157913208</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0332921557128429</v>
+        <v>-0.1540907621383667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0404698215425014</v>
+        <v>-0.0699440687894821</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3057380616664886</v>
+        <v>0.0386372283101081</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0070249503478407</v>
+        <v>-0.0519235469400882</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0203112699091434</v>
+        <v>-0.0510072484612464</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0247400421649217</v>
+        <v>0.0113010071218013</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1175915598869323</v>
+        <v>-0.0332921557128429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0080939643085002</v>
+        <v>0.0404698215425014</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0186313893646001</v>
+        <v>0.3057380616664886</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0047342055477201</v>
+        <v>0.0070249503478407</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0157297793775796</v>
+        <v>-0.0203112699091434</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0062613687478005</v>
+        <v>0.0247400421649217</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1360702365636825</v>
+        <v>-0.1175915598869323</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0059559359215199</v>
+        <v>-0.0080939643085002</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0456621758639812</v>
+        <v>-0.0186313893646001</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.009010262787342</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0004581489483825</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0007635815418325</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0609338097274303</v>
+        <v>-0.0047342055477201</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-44/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-44/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,6 +670,116 @@
         <v>-0.0047342055477201</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0157297793775796</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.0062613687478005</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1360702365636825</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.0059559359215199</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.0456621758639812</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.009010262787342</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0004581489483825</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.0007635815418325</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.0609338097274303</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0006108652451075</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0114537235349416</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0355829000473022</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0042760567739605</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.0050396383740007</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.0058032199740409</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.005192354787141</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.0007635815418325</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.0145080499351024</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0010690141934901</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.008399397134780801</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0061086523346602</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.0004581489483825</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0038179077673703</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0076358155347406</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0007635815418325</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0027488935738801</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.0044287731871008</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.00167987938039</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.0027488935738801</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0114537235349416</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
